--- a/exp2/case02/report/correlation/SimpleCorrPairAnalysis-strong.xlsx
+++ b/exp2/case02/report/correlation/SimpleCorrPairAnalysis-strong.xlsx
@@ -6,17 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="strong_spearman_26" r:id="rId3" sheetId="1"/>
-    <sheet name="strong_pearson_34" r:id="rId4" sheetId="2"/>
-    <sheet name="strong_spearman_34" r:id="rId5" sheetId="3"/>
+    <sheet name="strong_pearson_43" r:id="rId3" sheetId="1"/>
+    <sheet name="strong_spearman_43" r:id="rId4" sheetId="2"/>
+    <sheet name="strong_pearson_53" r:id="rId5" sheetId="3"/>
+    <sheet name="strong_spearman_53" r:id="rId6" sheetId="4"/>
+    <sheet name="strong_pearson_62" r:id="rId7" sheetId="5"/>
+    <sheet name="strong_spearman_62" r:id="rId8" sheetId="6"/>
+    <sheet name="strong_pearson_70" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="59">
   <si>
-    <t>Correlation information for DiffScore - Attention in ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for DiffTheta - Attention in non-gamified.Master using the method: pearson</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -25,7 +29,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffScore</t>
+    <t>DiffTheta</t>
   </si>
   <si>
     <t>Attention</t>
@@ -52,13 +56,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffSc-Attnt</t>
+    <t>DffTh-Attnt</t>
   </si>
   <si>
-    <t>Data source for DiffScore - Attention in ont-gamified.Apprentice</t>
+    <t>Data source for DiffTheta - Attention in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffScore - Attention in ont-gamified.Apprentice</t>
+    <t>Data full source for DiffTheta - Attention in non-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -77,6 +81,45 @@
   </si>
   <si>
     <t>PlayerRole</t>
+  </si>
+  <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for DiffTheta - Attention in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Correlation information for NroTotalInteractions - Attention in ont-gamified.Apprentice using the method: pearson</t>
+  </si>
+  <si>
+    <t>NroTotalInteractions</t>
+  </si>
+  <si>
+    <t>NrTtI-Attnt</t>
+  </si>
+  <si>
+    <t>Data source for NroTotalInteractions - Attention in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for NroTotalInteractions - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -115,43 +158,43 @@
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Correlation information for PostScore - Attention in non-gamified.Master using the method: pearson</t>
+    <t>Correlation information for NroTotalInteractions - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>PostScore</t>
+    <t>Correlation information for NroNecessaryInteractions - Attention in ont-gamified.Apprentice using the method: pearson</t>
   </si>
   <si>
-    <t>PstSc-Attnt</t>
+    <t>NroNecessaryInteractions</t>
   </si>
   <si>
-    <t>Data source for PostScore - Attention in non-gamified.Master</t>
+    <t>NrNcI-Attnt</t>
   </si>
   <si>
-    <t>Data full source for PostScore - Attention in non-gamified.Master</t>
+    <t>Data source for NroNecessaryInteractions - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>non-gamified</t>
+    <t>Data full source for NroNecessaryInteractions - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Grupo Team 11</t>
+    <t>Correlation information for NroNecessaryInteractions - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Grupo Team 10</t>
+    <t>Correlation information for NroDesiredInteractions - Attention in non-gamified.Master using the method: pearson</t>
   </si>
   <si>
-    <t>Grupo Team 9</t>
+    <t>NroDesiredInteractions</t>
   </si>
   <si>
-    <t>Grupo Team 8</t>
+    <t>NrDsI-Attnt</t>
   </si>
   <si>
-    <t>Master</t>
+    <t>Data source for NroDesiredInteractions - Attention in non-gamified.Master</t>
   </si>
   <si>
-    <t/>
+    <t>Data full source for NroDesiredInteractions - Attention in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for PostScore - Attention in non-gamified.Master using the method: spearman</t>
+    <t>Grupo Team 2</t>
   </si>
 </sst>
 </file>
@@ -159,13 +202,1905 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="223">
+  <fonts count="519">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1629,7 +3564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="981">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2123,6 +4058,662 @@
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2183,7 +4774,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.8257188348359862</v>
+        <v>0.733686362273936</v>
       </c>
     </row>
     <row r="7">
@@ -2191,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.8257188348359862</v>
+        <v>0.733686362273936</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -2229,7 +4820,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-3.8729245439186823</v>
+        <v>1.5270156021005634</v>
       </c>
     </row>
     <row r="13">
@@ -2237,7 +4828,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-3.8729245439186823</v>
+        <v>1.5270156021005634</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -2275,7 +4866,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.0061085545588945855</v>
+        <v>0.26631363772606376</v>
       </c>
     </row>
     <row r="19">
@@ -2283,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.0061085545588945855</v>
+        <v>0.26631363772606376</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -2324,16 +4915,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.9621944592671466</v>
+        <v>-0.7712067076870991</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.8257188348359862</v>
+        <v>0.733686362273936</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>-0.35781484597532714</v>
+        <v>0.9939224568318492</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.0061085545588945855</v>
+        <v>0.26631363772606376</v>
       </c>
     </row>
     <row r="25">
@@ -2361,349 +4952,179 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>1.985042735042736</v>
+        <v>0.6526494068280648</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>4.0</v>
+        <v>-0.7105675856923684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>-0.33638583638583697</v>
+        <v>1.4206330828726452</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>4.5</v>
+        <v>0.7509889977780969</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>2.4257936507936506</v>
+        <v>0.2678436466937021</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>4.0</v>
+        <v>-0.9011646241670594</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>2.5915140415140416</v>
+        <v>0.9130891094237921</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>3.8333333333333335</v>
+        <v>1.4262566914250443</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="113">
-        <v>0.3598901098901095</v>
-      </c>
-      <c r="B33" t="n" s="114">
-        <v>4.5</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="113">
-        <v>1.1839743589743588</v>
-      </c>
-      <c r="B34" t="n" s="114">
-        <v>4.833333333333333</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="113">
-        <v>1.7707264957264957</v>
-      </c>
-      <c r="B35" t="n" s="114">
-        <v>4.166666666666667</v>
+      <c r="A35" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="113">
-        <v>1.2628205128205137</v>
-      </c>
-      <c r="B36" t="n" s="114">
-        <v>4.0</v>
+      <c r="A36" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="113">
-        <v>1.8056013431013436</v>
-      </c>
-      <c r="B37" t="n" s="114">
-        <v>4.333333333333333</v>
+      <c r="A37" t="n" s="133">
+        <v>10197.0</v>
+      </c>
+      <c r="B37" t="n" s="134">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C37" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s" s="137">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s" s="138">
+        <v>27</v>
+      </c>
+      <c r="G37" t="n" s="139">
+        <v>0.6526494068280648</v>
+      </c>
+      <c r="H37" t="n" s="140">
+        <v>-0.7105675856923684</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>1</v>
+      <c r="A38" t="n" s="133">
+        <v>10201.0</v>
+      </c>
+      <c r="B38" t="n" s="134">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C38" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s" s="137">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s" s="138">
+        <v>27</v>
+      </c>
+      <c r="G38" t="n" s="139">
+        <v>1.4206330828726452</v>
+      </c>
+      <c r="H38" t="n" s="140">
+        <v>0.7509889977780969</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>1</v>
+      <c r="A39" t="n" s="133">
+        <v>10206.0</v>
+      </c>
+      <c r="B39" t="n" s="134">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C39" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s" s="137">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s" s="138">
+        <v>27</v>
+      </c>
+      <c r="G39" t="n" s="139">
+        <v>0.2678436466937021</v>
+      </c>
+      <c r="H39" t="n" s="140">
+        <v>-0.9011646241670594</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="118">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s" s="132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="133">
-        <v>10179.0</v>
-      </c>
-      <c r="B42" t="n" s="134">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C42" t="s" s="135">
+      <c r="A40" t="n" s="133">
+        <v>10213.0</v>
+      </c>
+      <c r="B40" t="n" s="134">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C40" t="s" s="135">
         <v>21</v>
       </c>
-      <c r="D42" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n" s="139">
-        <v>1.985042735042736</v>
-      </c>
-      <c r="H42" t="n" s="140">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="133">
-        <v>10187.0</v>
-      </c>
-      <c r="B43" t="n" s="134">
-        <v>9790781.0</v>
-      </c>
-      <c r="C43" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n" s="139">
-        <v>-0.33638583638583697</v>
-      </c>
-      <c r="H43" t="n" s="140">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="133">
-        <v>10202.0</v>
-      </c>
-      <c r="B44" t="n" s="134">
-        <v>1.0277036E7</v>
-      </c>
-      <c r="C44" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n" s="139">
-        <v>2.4257936507936506</v>
-      </c>
-      <c r="H44" t="n" s="140">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="133">
-        <v>10210.0</v>
-      </c>
-      <c r="B45" t="n" s="134">
-        <v>1.0277015E7</v>
-      </c>
-      <c r="C45" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="136">
+      <c r="D40" t="s" s="136">
         <v>25</v>
       </c>
-      <c r="E45" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n" s="139">
-        <v>2.5915140415140416</v>
-      </c>
-      <c r="H45" t="n" s="140">
-        <v>3.8333333333333335</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="133">
-        <v>10214.0</v>
-      </c>
-      <c r="B46" t="n" s="134">
-        <v>1.0277022E7</v>
-      </c>
-      <c r="C46" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="136">
+      <c r="E40" t="s" s="137">
         <v>26</v>
       </c>
-      <c r="E46" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="139">
-        <v>0.3598901098901095</v>
-      </c>
-      <c r="H46" t="n" s="140">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="133">
-        <v>10226.0</v>
-      </c>
-      <c r="B47" t="n" s="134">
-        <v>1.0310342E7</v>
-      </c>
-      <c r="C47" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="136">
+      <c r="F40" t="s" s="138">
         <v>27</v>
       </c>
-      <c r="E47" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G47" t="n" s="139">
-        <v>1.1839743589743588</v>
-      </c>
-      <c r="H47" t="n" s="140">
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="133">
-        <v>10228.0</v>
-      </c>
-      <c r="B48" t="n" s="134">
-        <v>1.0310492E7</v>
-      </c>
-      <c r="C48" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E48" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G48" t="n" s="139">
-        <v>1.7707264957264957</v>
-      </c>
-      <c r="H48" t="n" s="140">
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="133">
-        <v>10237.0</v>
-      </c>
-      <c r="B49" t="n" s="134">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C49" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E49" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F49" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G49" t="n" s="139">
-        <v>1.2628205128205137</v>
-      </c>
-      <c r="H49" t="n" s="140">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="133">
-        <v>10238.0</v>
-      </c>
-      <c r="B50" t="n" s="134">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C50" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E50" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G50" t="n" s="139">
-        <v>1.8056013431013436</v>
-      </c>
-      <c r="H50" t="n" s="140">
-        <v>4.333333333333333</v>
+      <c r="G40" t="n" s="139">
+        <v>0.9130891094237921</v>
+      </c>
+      <c r="H40" t="n" s="140">
+        <v>1.4262566914250443</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +5153,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -2753,7 +5174,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="170">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
         <v>4</v>
@@ -2761,13 +5182,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="166">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n" s="171">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>0.9279245401774164</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -2775,7 +5196,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>0.9279245401774164</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -2799,7 +5220,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="190">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
         <v>4</v>
@@ -2807,13 +5228,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B12" t="e" s="191">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>3.5203750277460863</v>
+        <v>1.8856180831641276</v>
       </c>
     </row>
     <row r="13">
@@ -2821,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>3.5203750277460863</v>
+        <v>1.8856180831641276</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -2845,7 +5266,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="210">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
         <v>4</v>
@@ -2853,13 +5274,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="206">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n" s="211">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.07207545982258345</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="19">
@@ -2867,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.07207545982258345</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>0.0</v>
@@ -2905,19 +5326,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.3065391464610453</v>
+        <v>-0.6969534452993221</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>0.9279245401774164</v>
+        <v>0.8</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.9985174742211727</v>
+        <v>0.9956002504665856</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.07207545982258345</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="25">
@@ -2932,12 +5353,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="252">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
         <v>4</v>
@@ -2945,34 +5366,34 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>5.819444444444445</v>
+        <v>0.6526494068280648</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>4.333333333333333</v>
+        <v>-0.7105675856923684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>6.277777777777778</v>
+        <v>1.4206330828726452</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>4.666666666666667</v>
+        <v>0.7509889977780969</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>5.470238095238096</v>
+        <v>0.2678436466937021</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>3.6666666666666665</v>
+        <v>-0.9011646241670594</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>6.166666666666667</v>
+        <v>0.9130891094237921</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>5.0</v>
+        <v>1.4262566914250443</v>
       </c>
     </row>
     <row r="33">
@@ -2987,7 +5408,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="258">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -3010,7 +5431,7 @@
         <v>20</v>
       </c>
       <c r="G36" t="s" s="272">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s" s="272">
         <v>4</v>
@@ -3024,22 +5445,22 @@
         <v>1.0276661E7</v>
       </c>
       <c r="C37" t="s" s="275">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s" s="276">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s" s="277">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s" s="278">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n" s="279">
-        <v>5.819444444444445</v>
+        <v>0.6526494068280648</v>
       </c>
       <c r="H37" t="n" s="280">
-        <v>4.333333333333333</v>
+        <v>-0.7105675856923684</v>
       </c>
     </row>
     <row r="38">
@@ -3050,22 +5471,22 @@
         <v>1.0276928E7</v>
       </c>
       <c r="C38" t="s" s="275">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s" s="276">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s" s="277">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s" s="278">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G38" t="n" s="279">
-        <v>6.277777777777778</v>
+        <v>1.4206330828726452</v>
       </c>
       <c r="H38" t="n" s="280">
-        <v>4.666666666666667</v>
+        <v>0.7509889977780969</v>
       </c>
     </row>
     <row r="39">
@@ -3076,22 +5497,22 @@
         <v>1.0310721E7</v>
       </c>
       <c r="C39" t="s" s="275">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s" s="276">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s" s="277">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s" s="278">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G39" t="n" s="279">
-        <v>5.470238095238096</v>
+        <v>0.2678436466937021</v>
       </c>
       <c r="H39" t="n" s="280">
-        <v>3.6666666666666665</v>
+        <v>-0.9011646241670594</v>
       </c>
     </row>
     <row r="40">
@@ -3102,22 +5523,22 @@
         <v>1.027704E7</v>
       </c>
       <c r="C40" t="s" s="275">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s" s="276">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s" s="277">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s" s="278">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n" s="279">
-        <v>6.166666666666667</v>
+        <v>0.9130891094237921</v>
       </c>
       <c r="H40" t="n" s="280">
-        <v>5.0</v>
+        <v>1.4262566914250443</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +5567,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -3167,7 +5588,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="310">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="310">
         <v>4</v>
@@ -3175,13 +5596,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="306">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n" s="311">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.8</v>
+        <v>-0.7474574435695651</v>
       </c>
     </row>
     <row r="7">
@@ -3189,7 +5610,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.8</v>
+        <v>-0.7474574435695651</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -3213,7 +5634,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="330">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s" s="330">
         <v>4</v>
@@ -3221,13 +5642,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="326">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="e" s="331">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>1.8856180831641276</v>
+        <v>-3.1824447631255173</v>
       </c>
     </row>
     <row r="13">
@@ -3235,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>1.8856180831641276</v>
+        <v>-3.1824447631255173</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -3259,7 +5680,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="350">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s" s="350">
         <v>4</v>
@@ -3267,13 +5688,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="346">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="351">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.19999999999999973</v>
+        <v>0.01294974337134569</v>
       </c>
     </row>
     <row r="19">
@@ -3281,7 +5702,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.19999999999999973</v>
+        <v>0.01294974337134569</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -3319,19 +5740,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.6969534452993221</v>
+        <v>-0.9363974424866558</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.8</v>
+        <v>-0.7474574435695651</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.9956002504665856</v>
+        <v>-0.22258281485095077</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.19999999999999973</v>
+        <v>0.01294974337134569</v>
       </c>
     </row>
     <row r="25">
@@ -3346,12 +5767,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="392">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="392">
         <v>4</v>
@@ -3359,39 +5780,2514 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>5.819444444444445</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>4.333333333333333</v>
+        <v>-0.2482126716355401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>6.277777777777778</v>
+        <v>3.0</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>4.666666666666667</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>5.470238095238096</v>
+        <v>6.0</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>3.6666666666666665</v>
+        <v>-0.4939415891435046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>6.166666666666667</v>
+        <v>6.0</v>
       </c>
       <c r="B32" t="n" s="394">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="393">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n" s="394">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="394">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="394">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B36" t="n" s="394">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B38" t="n" s="394">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="398">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="412">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s" s="412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="413">
+        <v>10179.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G43" t="n" s="419">
         <v>5.0</v>
       </c>
+      <c r="H43" t="n" s="420">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="413">
+        <v>10187.0</v>
+      </c>
+      <c r="B44" t="n" s="414">
+        <v>9790781.0</v>
+      </c>
+      <c r="C44" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s" s="416">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G44" t="n" s="419">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n" s="420">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="413">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="414">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s" s="416">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G45" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="420">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="413">
+        <v>10210.0</v>
+      </c>
+      <c r="B46" t="n" s="414">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C46" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s" s="416">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G46" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H46" t="n" s="420">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="413">
+        <v>10214.0</v>
+      </c>
+      <c r="B47" t="n" s="414">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C47" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G47" t="n" s="419">
+        <v>3.0</v>
+      </c>
+      <c r="H47" t="n" s="420">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="413">
+        <v>10226.0</v>
+      </c>
+      <c r="B48" t="n" s="414">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C48" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n" s="420">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="413">
+        <v>10228.0</v>
+      </c>
+      <c r="B49" t="n" s="414">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C49" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s" s="416">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G49" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n" s="420">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="413">
+        <v>10233.0</v>
+      </c>
+      <c r="B50" t="n" s="414">
+        <v>9805320.0</v>
+      </c>
+      <c r="C50" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s" s="416">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="418">
+        <v>44</v>
+      </c>
+      <c r="G50" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n" s="420">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="413">
+        <v>10237.0</v>
+      </c>
+      <c r="B51" t="n" s="414">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C51" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s" s="416">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G51" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n" s="420">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="413">
+        <v>10238.0</v>
+      </c>
+      <c r="B52" t="n" s="414">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C52" t="s" s="415">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s" s="417">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G52" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="n" s="420">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="422">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="450">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="446">
+        <v>30</v>
+      </c>
+      <c r="B6" t="n" s="451">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C6" t="n" s="452">
+        <v>-0.7858719167150978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="446">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="451">
+        <v>-0.7858719167150978</v>
+      </c>
+      <c r="C7" t="n" s="452">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="470">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s" s="470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="466">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="471">
+        <v>1.898125312485031E8</v>
+      </c>
+      <c r="C12" t="n" s="472">
+        <v>-3.59446942841867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="466">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="471">
+        <v>-3.59446942841867</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="490">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s" s="490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="486">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="491">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="492">
+        <v>0.007038619872619334</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="486">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="491">
+        <v>0.007038619872619334</v>
+      </c>
+      <c r="C19" t="n" s="492">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="510">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="510">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="510">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="506">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n" s="511">
+        <v>-0.9469446669600772</v>
+      </c>
+      <c r="C24" t="n" s="512">
+        <v>-0.7858719167150978</v>
+      </c>
+      <c r="D24" t="n" s="513">
+        <v>-0.3092782200912106</v>
+      </c>
+      <c r="E24" t="n" s="514">
+        <v>0.007038619872619334</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="518">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="532">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s" s="532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="533">
+        <v>5.0</v>
+      </c>
+      <c r="B29" t="n" s="534">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="533">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n" s="534">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="533">
+        <v>6.0</v>
+      </c>
+      <c r="B31" t="n" s="534">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="533">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n" s="534">
+        <v>-0.4939415891435046</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="n" s="533">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n" s="534">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="534">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="534">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B36" t="n" s="534">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n" s="534">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B38" t="n" s="534">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="538">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="552">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s" s="552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="553">
+        <v>10179.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>5.0</v>
+      </c>
+      <c r="H43" t="n" s="560">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="553">
+        <v>10187.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>9790781.0</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="553">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="554">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s" s="556">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G45" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="560">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="553">
+        <v>10210.0</v>
+      </c>
+      <c r="B46" t="n" s="554">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C46" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s" s="556">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G46" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H46" t="n" s="560">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="553">
+        <v>10214.0</v>
+      </c>
+      <c r="B47" t="n" s="554">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C47" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s" s="556">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G47" t="n" s="559">
+        <v>3.0</v>
+      </c>
+      <c r="H47" t="n" s="560">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="553">
+        <v>10226.0</v>
+      </c>
+      <c r="B48" t="n" s="554">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C48" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s" s="556">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n" s="560">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="553">
+        <v>10228.0</v>
+      </c>
+      <c r="B49" t="n" s="554">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C49" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s" s="556">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G49" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n" s="560">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="553">
+        <v>10233.0</v>
+      </c>
+      <c r="B50" t="n" s="554">
+        <v>9805320.0</v>
+      </c>
+      <c r="C50" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s" s="556">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="558">
+        <v>44</v>
+      </c>
+      <c r="G50" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n" s="560">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="553">
+        <v>10237.0</v>
+      </c>
+      <c r="B51" t="n" s="554">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C51" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s" s="556">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G51" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n" s="560">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="553">
+        <v>10238.0</v>
+      </c>
+      <c r="B52" t="n" s="554">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C52" t="s" s="555">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s" s="556">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s" s="557">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G52" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="n" s="560">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>48</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>-0.7474574435695651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>-0.7474574435695651</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>48</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>-3.1824447631255173</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>-3.1824447631255173</v>
+      </c>
+      <c r="C13" t="e" s="612">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>48</v>
+      </c>
+      <c r="B18" t="n" s="631">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="632">
+        <v>0.01294974337134569</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.01294974337134569</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.9363974424866558</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>-0.7474574435695651</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>-0.22258281485095077</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.01294974337134569</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>5.0</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>6.0</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="674">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B36" t="n" s="674">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n" s="674">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B38" t="n" s="674">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="678">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="692">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s" s="692">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="693">
+        <v>10179.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C43" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s" s="696">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G43" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10187.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>9790781.0</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G44" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="693">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s" s="696">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G45" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="693">
+        <v>10210.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C46" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s" s="696">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G46" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="693">
+        <v>10214.0</v>
+      </c>
+      <c r="B47" t="n" s="694">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C47" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s" s="696">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G47" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H47" t="n" s="700">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="693">
+        <v>10226.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C48" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s" s="696">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n" s="700">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="693">
+        <v>10228.0</v>
+      </c>
+      <c r="B49" t="n" s="694">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C49" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s" s="696">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G49" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n" s="700">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="693">
+        <v>10233.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>9805320.0</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>44</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="693">
+        <v>10237.0</v>
+      </c>
+      <c r="B51" t="n" s="694">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C51" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s" s="696">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G51" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n" s="700">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="693">
+        <v>10238.0</v>
+      </c>
+      <c r="B52" t="n" s="694">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C52" t="s" s="695">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s" s="696">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s" s="697">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G52" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="n" s="700">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>48</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>-0.7858719167150978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>-0.7858719167150978</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>48</v>
+      </c>
+      <c r="B12" t="n" s="751">
+        <v>1.898125312485031E8</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>-3.59446942841867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>-3.59446942841867</v>
+      </c>
+      <c r="C13" t="e" s="752">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>48</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.007038619872619334</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.007038619872619334</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>-0.9469446669600772</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>-0.7858719167150978</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>-0.3092782200912106</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.007038619872619334</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>5.0</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>6.0</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="814">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B36" t="n" s="814">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n" s="814">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B38" t="n" s="814">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="818">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="832">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="832">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="832">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="832">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="832">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s" s="832">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="833">
+        <v>10179.0</v>
+      </c>
+      <c r="B43" t="n" s="834">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C43" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s" s="836">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G43" t="n" s="839">
+        <v>5.0</v>
+      </c>
+      <c r="H43" t="n" s="840">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="833">
+        <v>10187.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>9790781.0</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s" s="836">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G44" t="n" s="839">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="n" s="840">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="833">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="834">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s" s="836">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G45" t="n" s="839">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="840">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="833">
+        <v>10210.0</v>
+      </c>
+      <c r="B46" t="n" s="834">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C46" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s" s="836">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G46" t="n" s="839">
+        <v>6.0</v>
+      </c>
+      <c r="H46" t="n" s="840">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="833">
+        <v>10214.0</v>
+      </c>
+      <c r="B47" t="n" s="834">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C47" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s" s="836">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G47" t="n" s="839">
+        <v>3.0</v>
+      </c>
+      <c r="H47" t="n" s="840">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="833">
+        <v>10226.0</v>
+      </c>
+      <c r="B48" t="n" s="834">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C48" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s" s="836">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="838">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n" s="840">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="833">
+        <v>10228.0</v>
+      </c>
+      <c r="B49" t="n" s="834">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C49" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s" s="836">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G49" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n" s="840">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="833">
+        <v>10233.0</v>
+      </c>
+      <c r="B50" t="n" s="834">
+        <v>9805320.0</v>
+      </c>
+      <c r="C50" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s" s="836">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="838">
+        <v>44</v>
+      </c>
+      <c r="G50" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n" s="840">
+        <v>1.1948803850188776</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="833">
+        <v>10237.0</v>
+      </c>
+      <c r="B51" t="n" s="834">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C51" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s" s="836">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="838">
+        <v>45</v>
+      </c>
+      <c r="G51" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n" s="840">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="833">
+        <v>10238.0</v>
+      </c>
+      <c r="B52" t="n" s="834">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C52" t="s" s="835">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s" s="836">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s" s="837">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="838">
+        <v>45</v>
+      </c>
+      <c r="G52" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="n" s="840">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="842">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="870">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s" s="870">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="866">
+        <v>54</v>
+      </c>
+      <c r="B6" t="n" s="871">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="872">
+        <v>-0.8020401245628602</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="866">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="871">
+        <v>-0.8020401245628602</v>
+      </c>
+      <c r="C7" t="n" s="872">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="876">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="890">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="890">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="886">
+        <v>54</v>
+      </c>
+      <c r="B12" t="e" s="891">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="892">
+        <v>-2.325872526487196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="886">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="891">
+        <v>-2.325872526487196</v>
+      </c>
+      <c r="C13" t="e" s="892">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="896">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="910">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s" s="910">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="906">
+        <v>54</v>
+      </c>
+      <c r="B18" t="n" s="911">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="912">
+        <v>0.10253303957785453</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="906">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="911">
+        <v>0.10253303957785453</v>
+      </c>
+      <c r="C19" t="n" s="912">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="916">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="930">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="930">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="930">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="930">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="926">
+        <v>55</v>
+      </c>
+      <c r="B24" t="n" s="931">
+        <v>-0.9863514024019835</v>
+      </c>
+      <c r="C24" t="n" s="932">
+        <v>-0.8020401245628602</v>
+      </c>
+      <c r="D24" t="n" s="933">
+        <v>0.2743840234101274</v>
+      </c>
+      <c r="E24" t="n" s="934">
+        <v>0.10253303957785453</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="938">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="952">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s" s="952">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="953">
+        <v>2.0</v>
+      </c>
+      <c r="B29" t="n" s="954">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="953">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n" s="954">
+        <v>-0.7105675856923684</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="953">
+        <v>2.0</v>
+      </c>
+      <c r="B31" t="n" s="954">
+        <v>0.7509889977780969</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="953">
+        <v>2.0</v>
+      </c>
+      <c r="B32" t="n" s="954">
+        <v>-0.9011646241670594</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="953">
+        <v>0.0</v>
+      </c>
+      <c r="B33" t="n" s="954">
+        <v>1.4262566914250443</v>
       </c>
     </row>
     <row r="34">
@@ -3400,138 +8296,169 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="398">
-        <v>37</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="412">
+      <c r="A36" t="s" s="958">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="972">
         <v>15</v>
       </c>
-      <c r="B36" t="s" s="412">
+      <c r="B37" t="s" s="972">
         <v>16</v>
       </c>
-      <c r="C36" t="s" s="412">
+      <c r="C37" t="s" s="972">
         <v>17</v>
       </c>
-      <c r="D36" t="s" s="412">
+      <c r="D37" t="s" s="972">
         <v>18</v>
       </c>
-      <c r="E36" t="s" s="412">
+      <c r="E37" t="s" s="972">
         <v>19</v>
       </c>
-      <c r="F36" t="s" s="412">
+      <c r="F37" t="s" s="972">
         <v>20</v>
       </c>
-      <c r="G36" t="s" s="412">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s" s="412">
+      <c r="G37" t="s" s="972">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s" s="972">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n" s="413">
+    <row r="38">
+      <c r="A38" t="n" s="973">
+        <v>10193.0</v>
+      </c>
+      <c r="B38" t="n" s="974">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C38" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s" s="976">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s" s="977">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s" s="978">
+        <v>27</v>
+      </c>
+      <c r="G38" t="n" s="979">
+        <v>2.0</v>
+      </c>
+      <c r="H38" t="n" s="980">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="973">
         <v>10197.0</v>
       </c>
-      <c r="B37" t="n" s="414">
+      <c r="B39" t="n" s="974">
         <v>1.0276661E7</v>
       </c>
-      <c r="C37" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s" s="416">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s" s="417">
-        <v>43</v>
-      </c>
-      <c r="F37" t="s" s="418">
-        <v>44</v>
-      </c>
-      <c r="G37" t="n" s="419">
-        <v>5.819444444444445</v>
-      </c>
-      <c r="H37" t="n" s="420">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="413">
+      <c r="C39" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="976">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="977">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s" s="978">
+        <v>27</v>
+      </c>
+      <c r="G39" t="n" s="979">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="n" s="980">
+        <v>-0.7105675856923684</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="973">
         <v>10201.0</v>
       </c>
-      <c r="B38" t="n" s="414">
+      <c r="B40" t="n" s="974">
         <v>1.0276928E7</v>
       </c>
-      <c r="C38" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="416">
-        <v>40</v>
-      </c>
-      <c r="E38" t="s" s="417">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s" s="418">
-        <v>44</v>
-      </c>
-      <c r="G38" t="n" s="419">
-        <v>6.277777777777778</v>
-      </c>
-      <c r="H38" t="n" s="420">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="413">
+      <c r="C40" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="976">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="977">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s" s="978">
+        <v>27</v>
+      </c>
+      <c r="G40" t="n" s="979">
+        <v>2.0</v>
+      </c>
+      <c r="H40" t="n" s="980">
+        <v>0.7509889977780969</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="973">
         <v>10206.0</v>
       </c>
-      <c r="B39" t="n" s="414">
+      <c r="B41" t="n" s="974">
         <v>1.0310721E7</v>
       </c>
-      <c r="C39" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s" s="416">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s" s="417">
-        <v>43</v>
-      </c>
-      <c r="F39" t="s" s="418">
-        <v>44</v>
-      </c>
-      <c r="G39" t="n" s="419">
-        <v>5.470238095238096</v>
-      </c>
-      <c r="H39" t="n" s="420">
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="413">
+      <c r="C41" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="976">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s" s="977">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s" s="978">
+        <v>27</v>
+      </c>
+      <c r="G41" t="n" s="979">
+        <v>2.0</v>
+      </c>
+      <c r="H41" t="n" s="980">
+        <v>-0.9011646241670594</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="973">
         <v>10213.0</v>
       </c>
-      <c r="B40" t="n" s="414">
+      <c r="B42" t="n" s="974">
         <v>1.027704E7</v>
       </c>
-      <c r="C40" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s" s="416">
-        <v>42</v>
-      </c>
-      <c r="E40" t="s" s="417">
-        <v>43</v>
-      </c>
-      <c r="F40" t="s" s="418">
-        <v>44</v>
-      </c>
-      <c r="G40" t="n" s="419">
-        <v>6.166666666666667</v>
-      </c>
-      <c r="H40" t="n" s="420">
-        <v>5.0</v>
+      <c r="C42" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="976">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s" s="977">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s" s="978">
+        <v>27</v>
+      </c>
+      <c r="G42" t="n" s="979">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="980">
+        <v>1.4262566914250443</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/case02/report/correlation/SimpleCorrPairAnalysis-strong.xlsx
+++ b/exp2/case02/report/correlation/SimpleCorrPairAnalysis-strong.xlsx
@@ -6,51 +6,116 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="strong_spearman_53" r:id="rId3" sheetId="1"/>
-    <sheet name="strong_spearman_62" r:id="rId4" sheetId="2"/>
+    <sheet name="strong_spearman_7" r:id="rId3" sheetId="1"/>
+    <sheet name="strong_spearman_53" r:id="rId4" sheetId="2"/>
+    <sheet name="strong_spearman_62" r:id="rId5" sheetId="3"/>
+    <sheet name="strong_spearman_90" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="58">
+  <si>
+    <t>Correlation information for DiffTheta - Level of Motivation in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Correlation matrix</t>
+  </si>
+  <si>
+    <t>DiffTheta</t>
+  </si>
+  <si>
+    <t>Level of Motivation</t>
+  </si>
+  <si>
+    <t>Matrix of t-test value</t>
+  </si>
+  <si>
+    <t>Probability of values (p-values)</t>
+  </si>
+  <si>
+    <t>Confidence intervals</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>DffTh-LvloM</t>
+  </si>
+  <si>
+    <t>Data source for DiffTheta - Level of Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for DiffTheta - Level of Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>NroUSP</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CLGroup</t>
+  </si>
+  <si>
+    <t>CLRole</t>
+  </si>
+  <si>
+    <t>PlayerRole</t>
+  </si>
+  <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Correlation information for NroTotalInteractions - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Correlation matrix</t>
-  </si>
-  <si>
     <t>NroTotalInteractions</t>
   </si>
   <si>
     <t>Attention</t>
   </si>
   <si>
-    <t>Matrix of t-test value</t>
-  </si>
-  <si>
-    <t>Probability of values (p-values)</t>
-  </si>
-  <si>
-    <t>Confidence intervals</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>NrTtI-Attnt</t>
   </si>
   <si>
@@ -60,24 +125,6 @@
     <t>Data full source for NroTotalInteractions - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>NroUSP</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CLGroup</t>
-  </si>
-  <si>
-    <t>CLRole</t>
-  </si>
-  <si>
-    <t>PlayerRole</t>
-  </si>
-  <si>
     <t>ont-gamified</t>
   </si>
   <si>
@@ -127,6 +174,21 @@
   </si>
   <si>
     <t>Data full source for NroNecessaryInteractions - Attention in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for NroTotalInteractions - Satisfaction in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>NrTtI-Stsfc</t>
+  </si>
+  <si>
+    <t>Data source for NroTotalInteractions - Satisfaction in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroTotalInteractions - Satisfaction in ont-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -134,13 +196,959 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="149">
+  <fonts count="297">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1131,7 +2139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1461,6 +2469,334 @@
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1518,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.7858719167150978</v>
+        <v>-0.7714285714285715</v>
       </c>
     </row>
     <row r="7">
@@ -1529,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.7858719167150978</v>
+        <v>-0.7714285714285715</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -1563,11 +2899,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="51">
-        <v>1.898125312485031E8</v>
+      <c r="B12" t="e" s="51">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-3.59446942841867</v>
+        <v>-2.4246715773614613</v>
       </c>
     </row>
     <row r="13">
@@ -1575,7 +2911,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-3.59446942841867</v>
+        <v>-2.4246715773614613</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -1613,7 +2949,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.007038619872619334</v>
+        <v>0.07239650145772591</v>
       </c>
     </row>
     <row r="19">
@@ -1621,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.007038619872619334</v>
+        <v>0.07239650145772591</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -1662,16 +2998,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.9469446669600772</v>
+        <v>-0.973511637634403</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.7858719167150978</v>
+        <v>-0.7714285714285715</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>-0.3092782200912106</v>
+        <v>0.10732436824253785</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.007038619872619334</v>
+        <v>0.07239650145772591</v>
       </c>
     </row>
     <row r="25">
@@ -1699,383 +3035,247 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>5.0</v>
+        <v>-0.046345989731290275</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>-0.2482126716355401</v>
+        <v>1.0461512661312262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>3.0</v>
+        <v>-0.02157182249588669</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.015219938416659686</v>
+        <v>-0.4139342499330048</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>6.0</v>
+        <v>-0.019331783211670558</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>-0.4939415891435046</v>
+        <v>0.6775395736416004</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>6.0</v>
+        <v>-0.026619631485678533</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.4939415891435046</v>
+        <v>-0.3255773711049619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>3.0</v>
+        <v>-0.09379854006121276</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>0.2753338747076326</v>
+        <v>0.9165656693613494</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>1.0</v>
+        <v>0.07859940130841217</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>0.5203987443460171</v>
+        <v>-0.6711884370789655</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B35" t="n" s="114">
-        <v>0.015219938416659686</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B36" t="n" s="114">
-        <v>1.1948803850188776</v>
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B37" t="n" s="114">
-        <v>0.015219938416659686</v>
+      <c r="A37" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B38" t="n" s="114">
-        <v>0.2753338747076326</v>
+      <c r="A38" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>1</v>
+      <c r="A39" t="n" s="133">
+        <v>10184.0</v>
+      </c>
+      <c r="B39" t="n" s="134">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C39" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G39" t="n" s="139">
+        <v>-0.046345989731290275</v>
+      </c>
+      <c r="H39" t="n" s="140">
+        <v>1.0461512661312262</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
+      <c r="A40" t="n" s="133">
+        <v>10197.0</v>
+      </c>
+      <c r="B40" t="n" s="134">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C40" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G40" t="n" s="139">
+        <v>-0.02157182249588669</v>
+      </c>
+      <c r="H40" t="n" s="140">
+        <v>-0.4139342499330048</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="118">
-        <v>14</v>
+      <c r="A41" t="n" s="133">
+        <v>10201.0</v>
+      </c>
+      <c r="B41" t="n" s="134">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C41" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n" s="139">
+        <v>-0.019331783211670558</v>
+      </c>
+      <c r="H41" t="n" s="140">
+        <v>0.6775395736416004</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s" s="132">
-        <v>4</v>
+      <c r="A42" t="n" s="133">
+        <v>10206.0</v>
+      </c>
+      <c r="B42" t="n" s="134">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C42" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n" s="139">
+        <v>-0.026619631485678533</v>
+      </c>
+      <c r="H42" t="n" s="140">
+        <v>-0.3255773711049619</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="133">
-        <v>10179.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B43" t="n" s="134">
-        <v>1.0310759E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C43" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D43" t="s" s="136">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s" s="137">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s" s="138">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" t="n" s="139">
-        <v>5.0</v>
+        <v>-0.09379854006121276</v>
       </c>
       <c r="H43" t="n" s="140">
-        <v>-0.2482126716355401</v>
+        <v>0.9165656693613494</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="133">
-        <v>10187.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B44" t="n" s="134">
-        <v>9790781.0</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C44" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D44" t="s" s="136">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s" s="137">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s" s="138">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n" s="139">
-        <v>3.0</v>
+        <v>0.07859940130841217</v>
       </c>
       <c r="H44" t="n" s="140">
-        <v>0.015219938416659686</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="133">
-        <v>10202.0</v>
-      </c>
-      <c r="B45" t="n" s="134">
-        <v>1.0277036E7</v>
-      </c>
-      <c r="C45" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n" s="139">
-        <v>6.0</v>
-      </c>
-      <c r="H45" t="n" s="140">
-        <v>-0.4939415891435046</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="133">
-        <v>10210.0</v>
-      </c>
-      <c r="B46" t="n" s="134">
-        <v>1.0277015E7</v>
-      </c>
-      <c r="C46" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="139">
-        <v>6.0</v>
-      </c>
-      <c r="H46" t="n" s="140">
-        <v>-0.4939415891435046</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="133">
-        <v>10214.0</v>
-      </c>
-      <c r="B47" t="n" s="134">
-        <v>1.0277022E7</v>
-      </c>
-      <c r="C47" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G47" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H47" t="n" s="140">
-        <v>0.2753338747076326</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="133">
-        <v>10226.0</v>
-      </c>
-      <c r="B48" t="n" s="134">
-        <v>1.0310342E7</v>
-      </c>
-      <c r="C48" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G48" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H48" t="n" s="140">
-        <v>0.5203987443460171</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="133">
-        <v>10228.0</v>
-      </c>
-      <c r="B49" t="n" s="134">
-        <v>1.0310492E7</v>
-      </c>
-      <c r="C49" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F49" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G49" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H49" t="n" s="140">
-        <v>0.015219938416659686</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="133">
-        <v>10233.0</v>
-      </c>
-      <c r="B50" t="n" s="134">
-        <v>9805320.0</v>
-      </c>
-      <c r="C50" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G50" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n" s="140">
-        <v>1.1948803850188776</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="133">
-        <v>10237.0</v>
-      </c>
-      <c r="B51" t="n" s="134">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C51" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G51" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n" s="140">
-        <v>0.015219938416659686</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="133">
-        <v>10238.0</v>
-      </c>
-      <c r="B52" t="n" s="134">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C52" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E52" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F52" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G52" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H52" t="n" s="140">
-        <v>0.2753338747076326</v>
+        <v>-0.6711884370789655</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3304,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -2125,29 +3325,29 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="170">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="166">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n" s="171">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.7858719167150978</v>
+        <v>-0.784070202132019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.7858719167150978</v>
+        <v>-0.784070202132019</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -2171,29 +3371,29 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="190">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
-        <v>34</v>
-      </c>
-      <c r="B12" t="n" s="191">
-        <v>1.898125312485031E8</v>
+        <v>31</v>
+      </c>
+      <c r="B12" t="e" s="191">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-3.59446942841867</v>
+        <v>-3.3422713816527234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-3.59446942841867</v>
+        <v>-3.3422713816527234</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -2217,29 +3417,29 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="210">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="206">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n" s="211">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.007038619872619334</v>
+        <v>0.012381082825807077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.007038619872619334</v>
+        <v>0.012381082825807077</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>0.0</v>
@@ -2277,19 +3477,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.9469446669600772</v>
+        <v>-0.9523079691808066</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.7858719167150978</v>
+        <v>-0.784070202132019</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>-0.3092782200912106</v>
+        <v>-0.2502670758759664</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.007038619872619334</v>
+        <v>0.012381082825807077</v>
       </c>
     </row>
     <row r="25">
@@ -2304,15 +3504,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="252">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2376,7 +3576,7 @@
         <v>1.0</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>1.1948803850188776</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="37">
@@ -2384,15 +3584,12 @@
         <v>1.0</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>0.015219938416659686</v>
+        <v>0.2753338747076326</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="253">
-        <v>1.0</v>
-      </c>
-      <c r="B38" t="n" s="254">
-        <v>0.2753338747076326</v>
+      <c r="A38" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2401,111 +3598,132 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
+      <c r="A40" t="s" s="258">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="258">
+      <c r="A41" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="272">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s" s="272">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="273">
+        <v>10179.0</v>
+      </c>
+      <c r="B42" t="n" s="274">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C42" t="s" s="275">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s" s="276">
         <v>37</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="272">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s" s="272">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s" s="272">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s" s="272">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s" s="272">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s" s="272">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s" s="272">
-        <v>34</v>
-      </c>
-      <c r="H42" t="s" s="272">
-        <v>4</v>
+      <c r="E42" t="s" s="277">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s" s="278">
+        <v>46</v>
+      </c>
+      <c r="G42" t="n" s="279">
+        <v>5.0</v>
+      </c>
+      <c r="H42" t="n" s="280">
+        <v>-0.2482126716355401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="273">
-        <v>10179.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B43" t="n" s="274">
-        <v>1.0310759E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C43" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s" s="276">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s" s="278">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G43" t="n" s="279">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H43" t="n" s="280">
-        <v>-0.2482126716355401</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="273">
-        <v>10187.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B44" t="n" s="274">
-        <v>9790781.0</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C44" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s" s="276">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s" s="278">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G44" t="n" s="279">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="n" s="280">
-        <v>0.015219938416659686</v>
+        <v>-0.4939415891435046</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="273">
-        <v>10202.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B45" t="n" s="274">
-        <v>1.0277036E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C45" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s" s="276">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s" s="278">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G45" t="n" s="279">
         <v>6.0</v>
@@ -2516,100 +3734,100 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="273">
-        <v>10210.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B46" t="n" s="274">
-        <v>1.0277015E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C46" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s" s="276">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s" s="278">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G46" t="n" s="279">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H46" t="n" s="280">
-        <v>-0.4939415891435046</v>
+        <v>0.2753338747076326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="273">
-        <v>10214.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B47" t="n" s="274">
-        <v>1.0277022E7</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C47" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s" s="276">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s" s="278">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n" s="279">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H47" t="n" s="280">
-        <v>0.2753338747076326</v>
+        <v>0.5203987443460171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="273">
-        <v>10226.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B48" t="n" s="274">
-        <v>1.0310342E7</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C48" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s" s="276">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s" s="278">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G48" t="n" s="279">
         <v>1.0</v>
       </c>
       <c r="H48" t="n" s="280">
-        <v>0.5203987443460171</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="273">
-        <v>10228.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B49" t="n" s="274">
-        <v>1.0310492E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C49" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s" s="276">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s" s="278">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G49" t="n" s="279">
         <v>1.0</v>
@@ -2620,80 +3838,1128 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="273">
-        <v>10233.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B50" t="n" s="274">
-        <v>9805320.0</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C50" t="s" s="275">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s" s="276">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s" s="277">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s" s="278">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G50" t="n" s="279">
         <v>1.0</v>
       </c>
       <c r="H50" t="n" s="280">
-        <v>1.1948803850188776</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="273">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="282">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="310">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="310">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="306">
+        <v>49</v>
+      </c>
+      <c r="B6" t="n" s="311">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="312">
+        <v>-0.784070202132019</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="306">
+        <v>32</v>
+      </c>
+      <c r="B7" t="n" s="311">
+        <v>-0.784070202132019</v>
+      </c>
+      <c r="C7" t="n" s="312">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="330">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s" s="330">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="326">
+        <v>49</v>
+      </c>
+      <c r="B12" t="e" s="331">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="332">
+        <v>-3.3422713816527234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="326">
+        <v>32</v>
+      </c>
+      <c r="B13" t="n" s="331">
+        <v>-3.3422713816527234</v>
+      </c>
+      <c r="C13" t="e" s="332">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="350">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s" s="350">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="346">
+        <v>49</v>
+      </c>
+      <c r="B18" t="n" s="351">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="352">
+        <v>0.012381082825807077</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="346">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n" s="351">
+        <v>0.012381082825807077</v>
+      </c>
+      <c r="C19" t="n" s="352">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="370">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="370">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="370">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="366">
+        <v>50</v>
+      </c>
+      <c r="B24" t="n" s="371">
+        <v>-0.9523079691808066</v>
+      </c>
+      <c r="C24" t="n" s="372">
+        <v>-0.784070202132019</v>
+      </c>
+      <c r="D24" t="n" s="373">
+        <v>-0.2502670758759664</v>
+      </c>
+      <c r="E24" t="n" s="374">
+        <v>0.012381082825807077</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="378">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="392">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s" s="392">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="393">
+        <v>5.0</v>
+      </c>
+      <c r="B29" t="n" s="394">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="393">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n" s="394">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="393">
+        <v>6.0</v>
+      </c>
+      <c r="B31" t="n" s="394">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="393">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n" s="394">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="393">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n" s="394">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="394">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="394">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B36" t="n" s="394">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="393">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="398">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="412">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s" s="412">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="413">
+        <v>10179.0</v>
+      </c>
+      <c r="B42" t="n" s="414">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C42" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s" s="416">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s" s="418">
+        <v>46</v>
+      </c>
+      <c r="G42" t="n" s="419">
+        <v>5.0</v>
+      </c>
+      <c r="H42" t="n" s="420">
+        <v>-0.2482126716355401</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="413">
+        <v>10187.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>9790781.0</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>46</v>
+      </c>
+      <c r="G43" t="n" s="419">
+        <v>3.0</v>
+      </c>
+      <c r="H43" t="n" s="420">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="413">
+        <v>10202.0</v>
+      </c>
+      <c r="B44" t="n" s="414">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C44" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s" s="418">
+        <v>46</v>
+      </c>
+      <c r="G44" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H44" t="n" s="420">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="413">
+        <v>10210.0</v>
+      </c>
+      <c r="B45" t="n" s="414">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C45" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s" s="418">
+        <v>46</v>
+      </c>
+      <c r="G45" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="420">
+        <v>-0.4939415891435046</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="413">
+        <v>10214.0</v>
+      </c>
+      <c r="B46" t="n" s="414">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C46" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s" s="416">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s" s="418">
+        <v>46</v>
+      </c>
+      <c r="G46" t="n" s="419">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="n" s="420">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="413">
+        <v>10226.0</v>
+      </c>
+      <c r="B47" t="n" s="414">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C47" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s" s="418">
+        <v>47</v>
+      </c>
+      <c r="G47" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="n" s="420">
+        <v>0.5203987443460171</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="413">
+        <v>10228.0</v>
+      </c>
+      <c r="B48" t="n" s="414">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C48" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s" s="418">
+        <v>46</v>
+      </c>
+      <c r="G48" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n" s="420">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="413">
         <v>10237.0</v>
       </c>
-      <c r="B51" t="n" s="274">
+      <c r="B49" t="n" s="414">
         <v>1.0377688E7</v>
       </c>
-      <c r="C51" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="276">
+      <c r="C49" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s" s="416">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s" s="418">
+        <v>47</v>
+      </c>
+      <c r="G49" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n" s="420">
+        <v>0.015219938416659686</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="413">
+        <v>10238.0</v>
+      </c>
+      <c r="B50" t="n" s="414">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C50" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s" s="416">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s" s="417">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s" s="418">
+        <v>47</v>
+      </c>
+      <c r="G50" t="n" s="419">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n" s="420">
+        <v>0.2753338747076326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="422">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="450">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="450">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="446">
+        <v>31</v>
+      </c>
+      <c r="B6" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="452">
+        <v>0.7181818181818181</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="446">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n" s="451">
+        <v>0.7181818181818181</v>
+      </c>
+      <c r="C7" t="n" s="452">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="470">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="470">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="466">
+        <v>31</v>
+      </c>
+      <c r="B12" t="e" s="471">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="472">
+        <v>2.3078115601066607</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="466">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n" s="471">
+        <v>2.3078115601066607</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="490">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="490">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="486">
+        <v>31</v>
+      </c>
+      <c r="B18" t="n" s="491">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="492">
+        <v>0.06909561889264859</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="486">
+        <v>54</v>
+      </c>
+      <c r="B19" t="n" s="491">
+        <v>0.06909561889264859</v>
+      </c>
+      <c r="C19" t="n" s="492">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="510">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="510">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="510">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="506">
+        <v>55</v>
+      </c>
+      <c r="B24" t="n" s="511">
+        <v>-0.07595551075337667</v>
+      </c>
+      <c r="C24" t="n" s="512">
+        <v>0.7181818181818181</v>
+      </c>
+      <c r="D24" t="n" s="513">
+        <v>0.954834345581724</v>
+      </c>
+      <c r="E24" t="n" s="514">
+        <v>0.06909561889264859</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="518">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="532">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s" s="532">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="533">
+        <v>13.0</v>
+      </c>
+      <c r="B29" t="n" s="534">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="533">
+        <v>7.0</v>
+      </c>
+      <c r="B30" t="n" s="534">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="533">
+        <v>4.0</v>
+      </c>
+      <c r="B31" t="n" s="534">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="533">
+        <v>10.0</v>
+      </c>
+      <c r="B32" t="n" s="534">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="533">
+        <v>13.0</v>
+      </c>
+      <c r="B33" t="n" s="534">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="533">
+        <v>6.0</v>
+      </c>
+      <c r="B34" t="n" s="534">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="533">
+        <v>11.0</v>
+      </c>
+      <c r="B35" t="n" s="534">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="538">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s" s="552">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s" s="552">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="553">
+        <v>10171.0</v>
+      </c>
+      <c r="B40" t="n" s="554">
+        <v>698531.0</v>
+      </c>
+      <c r="C40" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s" s="556">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s" s="557">
         <v>28</v>
       </c>
-      <c r="E51" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s" s="278">
-        <v>32</v>
-      </c>
-      <c r="G51" t="n" s="279">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n" s="280">
-        <v>0.015219938416659686</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="273">
-        <v>10238.0</v>
-      </c>
-      <c r="B52" t="n" s="274">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C52" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="276">
-        <v>29</v>
-      </c>
-      <c r="E52" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F52" t="s" s="278">
-        <v>32</v>
-      </c>
-      <c r="G52" t="n" s="279">
-        <v>1.0</v>
-      </c>
-      <c r="H52" t="n" s="280">
-        <v>0.2753338747076326</v>
+      <c r="F40" t="s" s="558">
+        <v>46</v>
+      </c>
+      <c r="G40" t="n" s="559">
+        <v>13.0</v>
+      </c>
+      <c r="H40" t="n" s="560">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="553">
+        <v>10172.0</v>
+      </c>
+      <c r="B41" t="n" s="554">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C41" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s" s="556">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="558">
+        <v>46</v>
+      </c>
+      <c r="G41" t="n" s="559">
+        <v>7.0</v>
+      </c>
+      <c r="H41" t="n" s="560">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="553">
+        <v>10185.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>46</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>4.0</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>46</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>10.0</v>
+      </c>
+      <c r="H43" t="n" s="560">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="553">
+        <v>10208.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>13.0</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="553">
+        <v>10211.0</v>
+      </c>
+      <c r="B45" t="n" s="554">
+        <v>9311643.0</v>
+      </c>
+      <c r="C45" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s" s="556">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s" s="558">
+        <v>46</v>
+      </c>
+      <c r="G45" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="560">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="553">
+        <v>10217.0</v>
+      </c>
+      <c r="B46" t="n" s="554">
+        <v>9805341.0</v>
+      </c>
+      <c r="C46" t="s" s="555">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s" s="556">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G46" t="n" s="559">
+        <v>11.0</v>
+      </c>
+      <c r="H46" t="n" s="560">
+        <v>0.7357406959794577</v>
       </c>
     </row>
   </sheetData>
